--- a/Document/IQBPay/IQBPay.xlsx
+++ b/Document/IQBPay/IQBPay.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\IQB\IQianBa\IQBPay\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JKY\Project\IQianBa\Document\IQBPay\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="流程" sheetId="1" r:id="rId1"/>
     <sheet name="模块界面" sheetId="3" r:id="rId2"/>
     <sheet name="用户分类" sheetId="2" r:id="rId3"/>
     <sheet name="商家" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>1. 微信扫码登陆</t>
   </si>
@@ -158,13 +159,21 @@
   </si>
   <si>
     <t>1.商家分为平台和加盟。2具备有效期。3具备开店时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志每天一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Session失效问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -553,36 +562,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="34.58203125" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -594,14 +603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="35.25" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="35.25" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="35.25" style="3"/>
@@ -609,12 +618,12 @@
     <col min="4" max="16384" width="35.25" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
@@ -622,7 +631,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="59.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -630,7 +639,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="59.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
@@ -638,7 +647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="44.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
@@ -646,7 +655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
@@ -654,37 +663,37 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -692,7 +701,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
@@ -705,20 +714,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -726,7 +735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -734,7 +743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -742,7 +751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -758,25 +767,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91749EF-E3B1-4F47-A998-E6DDEF1816CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.125" customWidth="1"/>
+    <col min="1" max="1" width="34.08203125" customWidth="1"/>
     <col min="2" max="2" width="89.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="159" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -784,9 +793,35 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="91.6640625" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Document/IQBPay/IQBPay.xlsx
+++ b/Document/IQBPay/IQBPay.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JKY\Project\IQianBa\Document\IQBPay\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\IQB\IQianBa\Document\IQBPay\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="流程" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>1. 微信扫码登陆</t>
   </si>
@@ -167,14 +167,18 @@
   </si>
   <si>
     <t>Session失效问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http转Https</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +189,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -227,7 +239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -248,6 +260,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,36 +577,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.58203125" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="34.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -603,14 +618,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="35.25" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="35.25" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="35.25" style="3"/>
@@ -618,12 +633,12 @@
     <col min="4" max="16384" width="35.25" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
@@ -631,7 +646,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="59.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -639,7 +654,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="59.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
@@ -647,7 +662,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="44.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
@@ -655,7 +670,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
@@ -663,37 +678,37 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -701,7 +716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
@@ -714,20 +729,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -735,7 +750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -743,7 +758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -751,7 +766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -767,25 +782,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.08203125" customWidth="1"/>
+    <col min="1" max="1" width="34.125" customWidth="1"/>
     <col min="2" max="2" width="89.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="159" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="159" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -793,7 +808,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -805,23 +820,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="91.6640625" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="91.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="91.625" style="7"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Document/IQBPay/IQBPay.xlsx
+++ b/Document/IQBPay/IQBPay.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>1. 微信扫码登陆</t>
   </si>
@@ -171,6 +171,14 @@
   </si>
   <si>
     <t>http转Https</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户授权码 在授权校验失效在本地校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站权限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -821,10 +829,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="91.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -847,6 +855,16 @@
         <v>37</v>
       </c>
     </row>
+    <row r="4" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/IQBPay/IQBPay.xlsx
+++ b/Document/IQBPay/IQBPay.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>1. 微信扫码登陆</t>
   </si>
@@ -179,6 +179,14 @@
   </si>
   <si>
     <t>网站权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单提现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -829,10 +837,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="91.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -865,6 +873,16 @@
         <v>39</v>
       </c>
     </row>
+    <row r="6" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/IQBPay/IQBPay.xlsx
+++ b/Document/IQBPay/IQBPay.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>1. 微信扫码登陆</t>
   </si>
@@ -187,6 +187,10 @@
   </si>
   <si>
     <t>订单提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分账设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -837,10 +841,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="91.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -883,6 +887,11 @@
         <v>41</v>
       </c>
     </row>
+    <row r="8" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/IQBPay/IQBPay.xlsx
+++ b/Document/IQBPay/IQBPay.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\IQB\IQianBa\Document\IQBPay\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JKY\Project\IQianBa\Document\IQBPay\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="流程" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>1. 微信扫码登陆</t>
   </si>
@@ -191,13 +191,21 @@
   </si>
   <si>
     <t>分账设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户授权，出错界面跳转。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付时商户的随机选择，商户信息编辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -259,7 +267,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -282,6 +290,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -597,36 +608,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="34.58203125" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -638,14 +649,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="35.25" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="35.25" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="35.25" style="3"/>
@@ -653,12 +664,12 @@
     <col min="4" max="16384" width="35.25" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
@@ -666,7 +677,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="59.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -674,7 +685,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="59.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
@@ -682,7 +693,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="44.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
@@ -690,7 +701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
@@ -698,37 +709,37 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -736,7 +747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
@@ -749,20 +760,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -770,7 +781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -778,7 +789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -786,7 +797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -802,25 +813,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.125" customWidth="1"/>
+    <col min="1" max="1" width="34.08203125" customWidth="1"/>
     <col min="2" max="2" width="89.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="159" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -828,7 +839,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -840,56 +851,66 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:A8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="91.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="91.58203125" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="91.625" style="7"/>
+    <col min="1" max="16384" width="91.58203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
